--- a/spreadsheets_final/marinegeo_spreadsheet_environmental_monitoring.xlsx
+++ b/spreadsheets_final/marinegeo_spreadsheet_environmental_monitoring.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\water-quality\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\spreadsheets_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E92CD137-4C18-47AD-9E03-43E6A2D6051B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808AC009-BA2E-4125-B26C-41F9BA442D93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,9 +285,6 @@
     <t>data_entry_year</t>
   </si>
   <si>
-    <t>v0.4.0</t>
-  </si>
-  <si>
     <t>Day of final data entry</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>environmental_monitoring</t>
+  </si>
+  <si>
+    <t>v0.5.0</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1169,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="161.1" customHeight="1">
       <c r="B1" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1177,7 +1177,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1227,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1350,13 +1350,13 @@
         <v>69</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>47</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1669,7 +1669,7 @@
         <v>72</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2043,13 +2043,13 @@
         <v>75</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -2061,13 +2061,13 @@
         <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -2079,13 +2079,13 @@
         <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -2344,10 +2344,10 @@
         <v>58</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>15</v>
@@ -2363,7 +2363,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
@@ -2376,10 +2376,10 @@
         <v>58</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
@@ -2532,10 +2532,10 @@
         <v>59</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>15</v>
